--- a/website/word_heat/data/wei_percentile.xlsx
+++ b/website/word_heat/data/wei_percentile.xlsx
@@ -474,7 +474,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>0.1764383561643836</v>
+        <v>0.7189041095890411</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -482,7 +482,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>0.03945205479452055</v>
+        <v>0.1320547945205479</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -490,7 +490,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>0.7978082191780822</v>
+        <v>0.313972602739726</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -498,7 +498,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>0.2284931506849315</v>
+        <v>0.1315068493150685</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -506,7 +506,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>0.3627397260273972</v>
+        <v>0.932054794520548</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -514,7 +514,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>0.05397260273972602</v>
+        <v>0.2128767123287671</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -522,7 +522,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>0.4575342465753425</v>
+        <v>0.6065753424657534</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -530,7 +530,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>0.1572602739726027</v>
+        <v>0.07945205479452055</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -538,7 +538,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>0.06958904109589041</v>
+        <v>0.03808219178082192</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -546,7 +546,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>0.9671232876712329</v>
+        <v>0.581917808219178</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -554,7 +554,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>0.1731506849315068</v>
+        <v>0.7156164383561644</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
@@ -562,7 +562,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>0.01863013698630137</v>
+        <v>0.2301369863013699</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -570,7 +570,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>0.9605479452054795</v>
+        <v>0.9408219178082192</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
@@ -578,7 +578,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>0.003835616438356164</v>
+        <v>0.4131506849315069</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
@@ -586,7 +586,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>0.343013698630137</v>
+        <v>0.08493150684931507</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
@@ -594,7 +594,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>0.1221917808219178</v>
+        <v>0.2263013698630137</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
@@ -602,7 +602,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>0.0821917808219178</v>
+        <v>0.1189041095890411</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
@@ -610,7 +610,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>0.09013698630136986</v>
+        <v>0.09863013698630137</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -618,7 +618,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>0.9950684931506849</v>
+        <v>1</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
@@ -626,7 +626,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>0.01589041095890411</v>
+        <v>0.06410958904109589</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
@@ -634,7 +634,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>0.08054794520547945</v>
+        <v>0.03945205479452055</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
@@ -642,7 +642,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>0.1512328767123288</v>
+        <v>0.2038356164383562</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
@@ -650,7 +650,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>0.156986301369863</v>
+        <v>0.0252054794520548</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
@@ -658,7 +658,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>0.006575342465753425</v>
+        <v>0.2016438356164384</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
@@ -666,7 +666,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>0.9556164383561644</v>
+        <v>0.9715068493150685</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
@@ -674,7 +674,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>0.1736986301369863</v>
+        <v>0.02684931506849315</v>
       </c>
       <c r="B27" t="s">
         <v>27</v>
@@ -682,7 +682,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>0.2687671232876712</v>
+        <v>0.1736986301369863</v>
       </c>
       <c r="B28" t="s">
         <v>28</v>

--- a/website/word_heat/data/wei_percentile.xlsx
+++ b/website/word_heat/data/wei_percentile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>percentile</t>
   </si>
@@ -37,6 +37,9 @@
     <t>美股</t>
   </si>
   <si>
+    <t>地缘</t>
+  </si>
+  <si>
     <t>通胀</t>
   </si>
   <si>
@@ -49,6 +52,9 @@
     <t>债券</t>
   </si>
   <si>
+    <t>政治</t>
+  </si>
+  <si>
     <t>黄金</t>
   </si>
   <si>
@@ -64,15 +70,33 @@
     <t>银行</t>
   </si>
   <si>
+    <t>估值</t>
+  </si>
+  <si>
+    <t>贸易</t>
+  </si>
+  <si>
+    <t>台湾</t>
+  </si>
+  <si>
     <t>利率</t>
   </si>
   <si>
+    <t>战争</t>
+  </si>
+  <si>
     <t>央行</t>
   </si>
   <si>
+    <t>经济</t>
+  </si>
+  <si>
     <t>股票</t>
   </si>
   <si>
+    <t>降息</t>
+  </si>
+  <si>
     <t>衰退</t>
   </si>
   <si>
@@ -83,6 +107,9 @@
   </si>
   <si>
     <t>汇率</t>
+  </si>
+  <si>
+    <t>降准</t>
   </si>
   <si>
     <t>杠杆</t>
@@ -458,7 +485,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -474,7 +501,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>0.7189041095890411</v>
+        <v>0.1347945205479452</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -482,7 +509,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>0.1320547945205479</v>
+        <v>0.4202739726027397</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -490,7 +517,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>0.313972602739726</v>
+        <v>0.05315068493150685</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -498,7 +525,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>0.1315068493150685</v>
+        <v>0.06356164383561644</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -506,7 +533,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>0.932054794520548</v>
+        <v>0.08575342465753424</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -514,7 +541,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>0.2128767123287671</v>
+        <v>0.8652054794520548</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -522,7 +549,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>0.6065753424657534</v>
+        <v>0.0326027397260274</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -530,7 +557,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>0.07945205479452055</v>
+        <v>0.1068493150684932</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -538,7 +565,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>0.03808219178082192</v>
+        <v>0.1386301369863014</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -546,7 +573,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>0.581917808219178</v>
+        <v>0.02136986301369863</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -554,7 +581,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>0.7156164383561644</v>
+        <v>0.1468493150684932</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
@@ -562,7 +589,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>0.2301369863013699</v>
+        <v>0.5046575342465753</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -570,7 +597,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>0.9408219178082192</v>
+        <v>0.8361643835616438</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
@@ -578,7 +605,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>0.4131506849315069</v>
+        <v>0.2745205479452055</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
@@ -586,7 +613,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>0.08493150684931507</v>
+        <v>0.5441095890410959</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
@@ -594,7 +621,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>0.2263013698630137</v>
+        <v>0.03068493150684931</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
@@ -602,7 +629,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>0.1189041095890411</v>
+        <v>0.3517808219178082</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
@@ -610,7 +637,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>0.09863013698630137</v>
+        <v>0.9084931506849315</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -618,7 +645,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>1</v>
+        <v>0.01589041095890411</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
@@ -626,7 +653,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>0.06410958904109589</v>
+        <v>0.2071232876712329</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
@@ -634,7 +661,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>0.03945205479452055</v>
+        <v>0.6098630136986302</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
@@ -642,7 +669,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>0.2038356164383562</v>
+        <v>0.4684931506849315</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
@@ -650,7 +677,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>0.0252054794520548</v>
+        <v>0.7358904109589041</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
@@ -658,7 +685,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>0.2016438356164384</v>
+        <v>0.1501369863013699</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
@@ -666,7 +693,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>0.9715068493150685</v>
+        <v>0.03863013698630137</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
@@ -674,7 +701,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>0.02684931506849315</v>
+        <v>0.03452054794520548</v>
       </c>
       <c r="B27" t="s">
         <v>27</v>
@@ -682,10 +709,82 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>0.1736986301369863</v>
+        <v>0.9621917808219178</v>
       </c>
       <c r="B28" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>0.01095890410958904</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <v>0.02575342465753425</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <v>0.9962917181705809</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32">
+        <v>0.0210958904109589</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <v>0.04301369863013699</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <v>0.08</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <v>0.1575342465753425</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <v>0.1232876712328767</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <v>0.004383561643835616</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/website/word_heat/data/wei_percentile.xlsx
+++ b/website/word_heat/data/wei_percentile.xlsx
@@ -501,7 +501,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>0.1347945205479452</v>
+        <v>0.1912328767123288</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -509,7 +509,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>0.4202739726027397</v>
+        <v>0.07780821917808219</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -517,7 +517,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>0.05315068493150685</v>
+        <v>0.06082191780821918</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -525,7 +525,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>0.06356164383561644</v>
+        <v>0.3953424657534246</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -533,7 +533,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>0.08575342465753424</v>
+        <v>0.2835616438356164</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -541,7 +541,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>0.8652054794520548</v>
+        <v>0.5293150684931507</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -549,7 +549,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>0.0326027397260274</v>
+        <v>0.2591780821917808</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -557,7 +557,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>0.1068493150684932</v>
+        <v>0.1961643835616438</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -565,7 +565,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>0.1386301369863014</v>
+        <v>0.05643835616438356</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -573,7 +573,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>0.02136986301369863</v>
+        <v>0.01095890410958904</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>0.1468493150684932</v>
+        <v>0.006575342465753425</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
@@ -589,7 +589,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>0.5046575342465753</v>
+        <v>0.6306849315068493</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -597,7 +597,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>0.8361643835616438</v>
+        <v>0.8038356164383562</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
@@ -605,7 +605,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>0.2745205479452055</v>
+        <v>0.3657534246575342</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
@@ -613,7 +613,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>0.5441095890410959</v>
+        <v>0.5320547945205479</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
@@ -621,7 +621,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>0.03068493150684931</v>
+        <v>0.004383561643835616</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
@@ -629,7 +629,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>0.3517808219178082</v>
+        <v>0.3421917808219178</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
@@ -637,7 +637,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>0.9084931506849315</v>
+        <v>0.743013698630137</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -645,7 +645,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>0.01589041095890411</v>
+        <v>0.04054794520547945</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
@@ -653,7 +653,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>0.2071232876712329</v>
+        <v>0.05616438356164383</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
@@ -661,7 +661,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>0.6098630136986302</v>
+        <v>0.4208219178082192</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
@@ -669,7 +669,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>0.4684931506849315</v>
+        <v>0.009863013698630137</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
@@ -677,7 +677,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>0.7358904109589041</v>
+        <v>0.02958904109589041</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
@@ -685,7 +685,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>0.1501369863013699</v>
+        <v>0.07342465753424658</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
@@ -693,7 +693,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>0.03863013698630137</v>
+        <v>0.08027397260273973</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
@@ -701,7 +701,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>0.03452054794520548</v>
+        <v>0.210958904109589</v>
       </c>
       <c r="B27" t="s">
         <v>27</v>
@@ -709,7 +709,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>0.9621917808219178</v>
+        <v>0.9764383561643836</v>
       </c>
       <c r="B28" t="s">
         <v>28</v>
@@ -717,7 +717,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>0.01095890410958904</v>
+        <v>0.296986301369863</v>
       </c>
       <c r="B29" t="s">
         <v>29</v>
@@ -725,7 +725,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>0.02575342465753425</v>
+        <v>0.07342465753424658</v>
       </c>
       <c r="B30" t="s">
         <v>30</v>
@@ -733,7 +733,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>0.9962917181705809</v>
+        <v>0.8037667071688943</v>
       </c>
       <c r="B31" t="s">
         <v>31</v>
@@ -741,7 +741,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>0.0210958904109589</v>
+        <v>0.01095890410958904</v>
       </c>
       <c r="B32" t="s">
         <v>32</v>
@@ -749,7 +749,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>0.04301369863013699</v>
+        <v>0.08082191780821918</v>
       </c>
       <c r="B33" t="s">
         <v>33</v>
@@ -757,7 +757,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>0.08</v>
+        <v>0.0547945205479452</v>
       </c>
       <c r="B34" t="s">
         <v>34</v>
@@ -765,7 +765,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>0.1575342465753425</v>
+        <v>0.6189041095890411</v>
       </c>
       <c r="B35" t="s">
         <v>35</v>
@@ -773,7 +773,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <v>0.1232876712328767</v>
+        <v>0.1183561643835616</v>
       </c>
       <c r="B36" t="s">
         <v>36</v>
@@ -781,7 +781,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
-        <v>0.004383561643835616</v>
+        <v>0.9605479452054795</v>
       </c>
       <c r="B37" t="s">
         <v>37</v>

--- a/website/word_heat/data/wei_percentile.xlsx
+++ b/website/word_heat/data/wei_percentile.xlsx
@@ -501,7 +501,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>0.1912328767123288</v>
+        <v>0.8904109589041096</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -509,7 +509,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>0.07780821917808219</v>
+        <v>0.4610958904109589</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -517,7 +517,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>0.06082191780821918</v>
+        <v>0.3254794520547945</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -525,7 +525,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>0.3953424657534246</v>
+        <v>0.08657534246575342</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -533,7 +533,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>0.2835616438356164</v>
+        <v>0.07835616438356165</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -541,7 +541,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>0.5293150684931507</v>
+        <v>0.04986301369863014</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -549,7 +549,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>0.2591780821917808</v>
+        <v>0.07342465753424658</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -557,7 +557,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>0.1961643835616438</v>
+        <v>0.1786301369863014</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -565,7 +565,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>0.05643835616438356</v>
+        <v>0.2098630136986301</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -573,7 +573,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>0.01095890410958904</v>
+        <v>0.3627397260273972</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>0.006575342465753425</v>
+        <v>0.1391780821917808</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
@@ -589,7 +589,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>0.6306849315068493</v>
+        <v>0.5572602739726027</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -597,7 +597,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>0.8038356164383562</v>
+        <v>0.7846575342465754</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
@@ -605,7 +605,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>0.3657534246575342</v>
+        <v>0.1315068493150685</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
@@ -613,7 +613,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>0.5320547945205479</v>
+        <v>0.7216438356164384</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
@@ -621,7 +621,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>0.004383561643835616</v>
+        <v>0.3134246575342466</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
@@ -629,7 +629,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>0.3421917808219178</v>
+        <v>0.1178082191780822</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
@@ -637,7 +637,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>0.743013698630137</v>
+        <v>0.5101369863013698</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -645,7 +645,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>0.04054794520547945</v>
+        <v>0.2657534246575343</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
@@ -653,7 +653,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>0.05616438356164383</v>
+        <v>0.04219178082191781</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
@@ -661,7 +661,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>0.4208219178082192</v>
+        <v>0.3227397260273973</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
@@ -669,7 +669,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>0.009863013698630137</v>
+        <v>0.0189041095890411</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
@@ -677,7 +677,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>0.02958904109589041</v>
+        <v>0.1221917808219178</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
@@ -685,7 +685,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>0.07342465753424658</v>
+        <v>0.09205479452054795</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
@@ -693,7 +693,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>0.08027397260273973</v>
+        <v>0.1589041095890411</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
@@ -701,7 +701,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>0.210958904109589</v>
+        <v>0.1391780821917808</v>
       </c>
       <c r="B27" t="s">
         <v>27</v>
@@ -709,7 +709,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>0.9764383561643836</v>
+        <v>0.8065753424657535</v>
       </c>
       <c r="B28" t="s">
         <v>28</v>
@@ -717,7 +717,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>0.296986301369863</v>
+        <v>0.426027397260274</v>
       </c>
       <c r="B29" t="s">
         <v>29</v>
@@ -725,7 +725,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>0.07342465753424658</v>
+        <v>0.09205479452054795</v>
       </c>
       <c r="B30" t="s">
         <v>30</v>
@@ -733,7 +733,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>0.8037667071688943</v>
+        <v>0.3227326266195524</v>
       </c>
       <c r="B31" t="s">
         <v>31</v>
@@ -741,7 +741,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>0.01095890410958904</v>
+        <v>0.4501369863013699</v>
       </c>
       <c r="B32" t="s">
         <v>32</v>
@@ -749,7 +749,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>0.08082191780821918</v>
+        <v>0.1145205479452055</v>
       </c>
       <c r="B33" t="s">
         <v>33</v>
@@ -757,7 +757,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>0.0547945205479452</v>
+        <v>0.787945205479452</v>
       </c>
       <c r="B34" t="s">
         <v>34</v>
@@ -765,7 +765,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>0.6189041095890411</v>
+        <v>0.126027397260274</v>
       </c>
       <c r="B35" t="s">
         <v>35</v>
@@ -773,7 +773,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <v>0.1183561643835616</v>
+        <v>0.1863013698630137</v>
       </c>
       <c r="B36" t="s">
         <v>36</v>
@@ -781,7 +781,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
-        <v>0.9605479452054795</v>
+        <v>0.1550684931506849</v>
       </c>
       <c r="B37" t="s">
         <v>37</v>

--- a/website/word_heat/data/wei_percentile.xlsx
+++ b/website/word_heat/data/wei_percentile.xlsx
@@ -501,7 +501,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>0.8904109589041096</v>
+        <v>0.3816438356164383</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -509,7 +509,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>0.4610958904109589</v>
+        <v>0.5446575342465754</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -517,7 +517,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>0.3254794520547945</v>
+        <v>0.5693150684931507</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -525,7 +525,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>0.08657534246575342</v>
+        <v>0.1967123287671233</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -533,7 +533,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>0.07835616438356165</v>
+        <v>0.28</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -541,7 +541,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>0.04986301369863014</v>
+        <v>0.05041095890410959</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -549,7 +549,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>0.07342465753424658</v>
+        <v>0.2745205479452055</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -557,7 +557,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>0.1786301369863014</v>
+        <v>0.6531506849315069</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -565,7 +565,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>0.2098630136986301</v>
+        <v>0.09041095890410959</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -573,7 +573,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>0.3627397260273972</v>
+        <v>0.1912328767123288</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>0.1391780821917808</v>
+        <v>0.008767123287671232</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
@@ -589,7 +589,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>0.5572602739726027</v>
+        <v>0.2553424657534247</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -597,7 +597,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>0.7846575342465754</v>
+        <v>0.726027397260274</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
@@ -605,7 +605,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>0.1315068493150685</v>
+        <v>0.1484931506849315</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
@@ -613,7 +613,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>0.7216438356164384</v>
+        <v>0.32</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
@@ -621,7 +621,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>0.3134246575342466</v>
+        <v>0.210958904109589</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
@@ -629,7 +629,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>0.1178082191780822</v>
+        <v>0.7205479452054795</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
@@ -637,7 +637,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>0.5101369863013698</v>
+        <v>0.9013698630136986</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -645,7 +645,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>0.2657534246575343</v>
+        <v>0.0536986301369863</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
@@ -653,7 +653,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>0.04219178082191781</v>
+        <v>0.1317808219178082</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
@@ -661,7 +661,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>0.3227397260273973</v>
+        <v>0.1386301369863014</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
@@ -669,7 +669,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>0.0189041095890411</v>
+        <v>0.2013698630136986</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
@@ -677,7 +677,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>0.1221917808219178</v>
+        <v>0.009315068493150684</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
@@ -685,7 +685,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>0.09205479452054795</v>
+        <v>0.02136986301369863</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
@@ -693,7 +693,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>0.1589041095890411</v>
+        <v>0.2408219178082192</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
@@ -701,7 +701,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>0.1391780821917808</v>
+        <v>0.04876712328767123</v>
       </c>
       <c r="B27" t="s">
         <v>27</v>
@@ -709,7 +709,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>0.8065753424657535</v>
+        <v>0.6093150684931506</v>
       </c>
       <c r="B28" t="s">
         <v>28</v>
@@ -717,7 +717,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>0.426027397260274</v>
+        <v>0.5780821917808219</v>
       </c>
       <c r="B29" t="s">
         <v>29</v>
@@ -725,7 +725,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>0.09205479452054795</v>
+        <v>0.136986301369863</v>
       </c>
       <c r="B30" t="s">
         <v>30</v>
@@ -733,7 +733,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>0.3227326266195524</v>
+        <v>0.7376578645235362</v>
       </c>
       <c r="B31" t="s">
         <v>31</v>
@@ -741,7 +741,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>0.4501369863013699</v>
+        <v>0.4386301369863014</v>
       </c>
       <c r="B32" t="s">
         <v>32</v>
@@ -749,7 +749,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>0.1145205479452055</v>
+        <v>0.212054794520548</v>
       </c>
       <c r="B33" t="s">
         <v>33</v>
@@ -757,7 +757,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>0.787945205479452</v>
+        <v>0.143013698630137</v>
       </c>
       <c r="B34" t="s">
         <v>34</v>
@@ -765,7 +765,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>0.126027397260274</v>
+        <v>0.1764383561643836</v>
       </c>
       <c r="B35" t="s">
         <v>35</v>
@@ -773,7 +773,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <v>0.1863013698630137</v>
+        <v>0.5046575342465753</v>
       </c>
       <c r="B36" t="s">
         <v>36</v>
@@ -781,7 +781,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
-        <v>0.1550684931506849</v>
+        <v>0.00821917808219178</v>
       </c>
       <c r="B37" t="s">
         <v>37</v>
